--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2474905.51786606</v>
+        <v>-2477810.390013214</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>200.2365107674141</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>11.44871811097143</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -820,19 +820,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>91.75046265515624</v>
+        <v>48.97699675700441</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>156.3092152845968</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>377.1843522620727</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>354.3227626794439</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>221.4910668316317</v>
+        <v>42.07242847518505</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>254.8664514812352</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>9.677401524436412</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>54.46740106394503</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>66.37872473225609</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>43.87236189622226</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>117.4665281367395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>247.5867185477173</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>5.623597659135302</v>
       </c>
     </row>
     <row r="17">
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>80.6784213964369</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>134.0367616438391</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>178.5134655978075</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308923</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
         <v>261.8998268972044</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2716,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3016,7 +3016,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860056</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096042</v>
+        <v>156.7416385096056</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972055</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,7 +3436,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096051</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808201</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972037</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1882.054803223514</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1513.092286283102</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1154.826587676352</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1154.826587676352</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2509.407241604139</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="Y2" t="n">
-        <v>2268.654643287636</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2284.576506565268</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C4" t="n">
-        <v>2115.640323637361</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D4" t="n">
-        <v>2115.640323637361</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E4" t="n">
-        <v>2115.640323637361</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H4" t="n">
         <v>2022.963088632153</v>
@@ -4522,16 +4522,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>2442.464602812336</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>2284.576506565268</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>2284.576506565268</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y4" t="n">
-        <v>2284.576506565268</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2423.485734520778</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C5" t="n">
-        <v>2054.523217580367</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1696.257518973616</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1310.469266375372</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X5" t="n">
-        <v>2423.485734520778</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y5" t="n">
-        <v>2423.485734520778</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.7161456655658</v>
+        <v>656.2146625598692</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>249.7161456655658</v>
+        <v>656.2146625598692</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.7161456655658</v>
+        <v>656.2146625598692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.868455189849</v>
+        <v>796.199379560631</v>
       </c>
       <c r="C8" t="n">
-        <v>1411.905938249437</v>
+        <v>796.199379560631</v>
       </c>
       <c r="D8" t="n">
-        <v>1053.640239642687</v>
+        <v>796.199379560631</v>
       </c>
       <c r="E8" t="n">
         <v>796.199379560631</v>
@@ -4805,22 +4805,22 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>877.9592936548923</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>1509.677104638204</v>
       </c>
       <c r="N8" t="n">
-        <v>1579.896877817736</v>
+        <v>2136.984772698051</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4835,19 +4835,19 @@
         <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>2540.93405351505</v>
+        <v>1956.179462916631</v>
       </c>
       <c r="W8" t="n">
-        <v>2540.93405351505</v>
+        <v>1946.404309861644</v>
       </c>
       <c r="X8" t="n">
-        <v>2167.468295253971</v>
+        <v>1572.938551600565</v>
       </c>
       <c r="Y8" t="n">
-        <v>2167.468295253971</v>
+        <v>1182.799219624753</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1287.881061752385</v>
       </c>
       <c r="N9" t="n">
-        <v>1934.002090843955</v>
+        <v>1955.425461779395</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P9" t="n">
         <v>2613.551098059417</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>221.9342089920628</v>
+        <v>259.0771980649679</v>
       </c>
       <c r="C10" t="n">
-        <v>221.9342089920628</v>
+        <v>259.0771980649679</v>
       </c>
       <c r="D10" t="n">
-        <v>71.81756957972706</v>
+        <v>108.9605586526322</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>986.8284463784404</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>986.8284463784404</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>986.8284463784404</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="U10" t="n">
-        <v>986.8284463784404</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="V10" t="n">
-        <v>732.1439581725535</v>
+        <v>668.715213793225</v>
       </c>
       <c r="W10" t="n">
-        <v>442.7267881355929</v>
+        <v>668.715213793225</v>
       </c>
       <c r="X10" t="n">
-        <v>442.7267881355929</v>
+        <v>440.7256628952076</v>
       </c>
       <c r="Y10" t="n">
-        <v>221.9342089920628</v>
+        <v>440.7256628952076</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,16 +5358,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.8412329032296</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032296</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1727.373486017864</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1472.688997811978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.271827775017</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>955.2822768769995</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.4896977334694</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5531,10 +5531,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5604,7 +5604,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517213</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190824</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770323</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>634.3345878491255</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367897</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>484.2179484367897</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>484.2179484367897</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.0218491516696</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.3100179938677</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1842.070412183399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072721</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5732,31 +5732,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5838,7 +5838,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
         <v>1344.266747951537</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5987,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6005,7 +6005,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6075,19 +6075,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G25" t="n">
         <v>268.5553036345476</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N25" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517213</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
         <v>656.9646031150022</v>
@@ -6379,16 +6379,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6400,7 +6400,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
         <v>2639.297491717215</v>
@@ -6415,10 +6415,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6607,7 +6607,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,52 +6616,52 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D34" t="n">
         <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O34" t="n">
         <v>2179.340199382519</v>
@@ -6877,13 +6877,13 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,16 +6892,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580115</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,16 +7351,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7561,13 +7561,13 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7585,16 +7585,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,7 +8058,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>275.3456371407393</v>
+        <v>246.7442906384753</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>103.0217652005976</v>
       </c>
       <c r="N9" t="n">
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>97.03931925844932</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>15.83931583777896</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>206.6395349742973</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -22607,7 +22607,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22717,16 +22717,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,31 +22747,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>130.2137830519942</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>104.7431111219901</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>212.9610556929595</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0.587414922128616</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>152.147712745405</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>73.62417772602052</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15883.07632636138</v>
+        <v>15883.07632636139</v>
       </c>
       <c r="C2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
         <v>20178.66499225016</v>
@@ -26338,22 +26338,22 @@
         <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-11</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682744</v>
@@ -26430,34 +26430,34 @@
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682736</v>
+        <v>5677.536566682747</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="J4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="K4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="M4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.3958297762</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-760864.1675428048</v>
+        <v>-761328.4643348292</v>
       </c>
       <c r="C6" t="n">
         <v>-272255.4492798357</v>
@@ -26528,40 +26528,40 @@
         <v>-428059.2553736307</v>
       </c>
       <c r="E6" t="n">
-        <v>-857674.092779146</v>
+        <v>-857708.8307045817</v>
       </c>
       <c r="F6" t="n">
-        <v>-86621.4013983397</v>
+        <v>-86656.13932377539</v>
       </c>
       <c r="G6" t="n">
-        <v>-86621.40139833969</v>
+        <v>-86656.13932377541</v>
       </c>
       <c r="H6" t="n">
-        <v>-86621.4013983397</v>
+        <v>-86656.13932377547</v>
       </c>
       <c r="I6" t="n">
         <v>-115734.1854307163</v>
       </c>
       <c r="J6" t="n">
-        <v>-272729.6866296775</v>
+        <v>-272729.6866296774</v>
       </c>
       <c r="K6" t="n">
-        <v>-96306.4674370845</v>
+        <v>-96306.46743708453</v>
       </c>
       <c r="L6" t="n">
-        <v>-96306.4674370845</v>
+        <v>-96306.46743708456</v>
       </c>
       <c r="M6" t="n">
         <v>-220514.978145143</v>
       </c>
       <c r="N6" t="n">
-        <v>-115734.1854307162</v>
+        <v>-115734.1854307163</v>
       </c>
       <c r="O6" t="n">
-        <v>-96306.46743708456</v>
+        <v>-96306.46743708452</v>
       </c>
       <c r="P6" t="n">
-        <v>-96306.4674370845</v>
+        <v>-96306.46743708453</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26923,28 +26923,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-14</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203966</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.197442310920451e-14</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203969</v>
-      </c>
       <c r="O2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.460698725481052e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>349.4335759332286</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>337.7922506064416</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>53.670585367775</v>
+        <v>96.44405126592683</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>5.549489401407925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>52.5532830622675</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>4.218588557405468</v>
+        <v>183.6372269138521</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>127.0639185910265</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>339.5635671929766</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>91.96656158262414</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>62.79445693553522</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,19 +32078,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32324,10 +32324,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32558,10 +32558,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N21" t="n">
-        <v>405.637736314577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>416.4300581532619</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O27" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N33" t="n">
-        <v>405.637736314577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,7 +33746,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>405.6377363145776</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O42" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>340.4395077511235</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>447.2335415013044</v>
+        <v>418.6321949990405</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>284.3322059628247</v>
       </c>
       <c r="N9" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>258.1628674087126</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>22.96660727472423</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35899,13 +35899,13 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,10 +35972,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O18" t="n">
-        <v>197.8432633066783</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36206,10 +36206,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O27" t="n">
-        <v>197.8432633066783</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312443</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O42" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>197.843263306679</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
